--- a/ver_3/data/samples_data.xlsx
+++ b/ver_3/data/samples_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkyom\OneDrive\デスクトップ\pka_activity\ver_3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B421CFF7-CFAB-44DA-A7A9-8ECB57994CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA761E-37BB-4C5B-B88B-79D886638582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フタル酸骨格" sheetId="1" r:id="rId1"/>
@@ -1614,9 +1614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1949,6 +1949,9 @@
       </c>
       <c r="C23" t="s">
         <v>95</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2104,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E020B3-DDD7-4F4C-A980-E143C32F0D49}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
